--- a/Algorithm/dynamic/test.xlsx
+++ b/Algorithm/dynamic/test.xlsx
@@ -15,10 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="n2" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
+    <sheet name="n2-8" sheetId="9" r:id="rId4"/>
+    <sheet name="n2-8-after" sheetId="11" r:id="rId5"/>
+    <sheet name="n2-9-after" sheetId="10" r:id="rId6"/>
+    <sheet name="n2-9" sheetId="7" r:id="rId7"/>
+    <sheet name="n2-10" sheetId="12" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId9"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId10"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2086,6 +2090,1663 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:U125"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="13"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="13"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="4"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="1"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="1"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="1"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="14"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="14"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="14"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="5"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="2"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="13"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="1"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="1"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="2"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="13"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="14"/>
+    </row>
+    <row r="60" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="2"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="11"/>
+    </row>
+    <row r="63" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="16"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="2"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="4"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="1"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="1"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="14"/>
+    </row>
+    <row r="75" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="14"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B79" s="13"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="4"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="35"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="25"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B83" s="24"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="27"/>
+    </row>
+    <row r="84" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="31"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="28"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+    </row>
+    <row r="86" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B87" s="2"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="4"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B89" s="2"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="4"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B92" s="8"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="15"/>
+    </row>
+    <row r="93" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="8"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="15"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B94" s="13"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="4"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B97" s="1"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="1"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B99" s="1"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="1"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="102" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B103" s="1"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="13"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="5"/>
+    </row>
+    <row r="105" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B105" s="4"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+    </row>
+    <row r="106" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B107" s="2"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B108" s="13"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="14"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="14"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B114" s="1"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B115" s="1"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="1"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B118" s="13"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="14"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B119" s="13"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="14"/>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+    </row>
+    <row r="122" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B123" s="2"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="11"/>
+    </row>
+    <row r="124" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B124" s="4"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B125" s="16"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AB60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="3"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="3"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="14"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="14"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="14"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="14"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="14"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="14"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="14"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="14"/>
+    </row>
+    <row r="5" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="5"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="14"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="5"/>
+    </row>
+    <row r="6" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="52"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="3"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="3"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="5"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="14"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="14"/>
+    </row>
+    <row r="8" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="46"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="3"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="5"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="52"/>
+    </row>
+    <row r="9" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="46"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="56"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="14"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="3"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="14"/>
+    </row>
+    <row r="10" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="52"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="48"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="48"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="52"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="5"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="5"/>
+    </row>
+    <row r="11" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="14"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="5"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="55"/>
+      <c r="C18" s="56"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="14"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="46"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="48"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="46"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="3"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="3"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="14"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="14"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="3"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="3"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="14"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="14"/>
+    </row>
+    <row r="26" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="14"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="14"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="3"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="3"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="52"/>
+    </row>
+    <row r="27" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="14"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="14"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="14"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="14"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="14"/>
+    </row>
+    <row r="28" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="54"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="3"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="3"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="52"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="46"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="14"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="14"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="14"/>
+    </row>
+    <row r="29" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="14"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="14"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="56"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="5"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="14"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="14"/>
+    </row>
+    <row r="30" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="52"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="5"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="48"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="3"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="52"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="5"/>
+    </row>
+    <row r="31" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U31" s="13"/>
+      <c r="V31" s="14"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="14"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="14"/>
+    </row>
+    <row r="32" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="46"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="52"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="3"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="52"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="14"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="14"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="14"/>
+    </row>
+    <row r="33" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="55"/>
+      <c r="C33" s="56"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="56"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="14"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="14"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="14"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="14"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="14"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="14"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="14"/>
+    </row>
+    <row r="34" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="58"/>
+      <c r="C34" s="59"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="48"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="52"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="5"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="52"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="5"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="52"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="5"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="5"/>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="3"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="14"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="14"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="14"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="14"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="14"/>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="14"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="14"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="14"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="14"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="14"/>
+    </row>
+    <row r="38" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="14"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="14"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="5"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="5"/>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="46"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="46"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="14"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="14"/>
+    </row>
+    <row r="40" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="47"/>
+      <c r="C40" s="48"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="5"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="48"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="48"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="5"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="5"/>
+    </row>
+    <row r="41" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="52"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="46"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="55"/>
+      <c r="C43" s="56"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="14"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="48"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="5"/>
+    </row>
+    <row r="44" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="55"/>
+      <c r="C44" s="56"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="46"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="14"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="14"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="47"/>
+      <c r="C45" s="48"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="48"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="52"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="5"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="5"/>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="14"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="14"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="3"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="14"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="14"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="14"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="14"/>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="14"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="14"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="14"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="14"/>
+    </row>
+    <row r="49" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="14"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="14"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="14"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="14"/>
+    </row>
+    <row r="50" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="51"/>
+      <c r="C50" s="52"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="52"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="52"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="52"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="52"/>
+    </row>
+    <row r="51" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="45"/>
+      <c r="C52" s="46"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="3"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="46"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="46"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="3"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="3"/>
+      <c r="W52" s="51"/>
+      <c r="X52" s="52"/>
+    </row>
+    <row r="53" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="55"/>
+      <c r="C53" s="56"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="14"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="14"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="48"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="56"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="5"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="14"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="14"/>
+    </row>
+    <row r="54" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="55"/>
+      <c r="C54" s="56"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="46"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="14"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="14"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="48"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="3"/>
+      <c r="T54" s="51"/>
+      <c r="U54" s="52"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="5"/>
+    </row>
+    <row r="55" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="55"/>
+      <c r="C55" s="56"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="56"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="46"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="14"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="14"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="14"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="14"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="47"/>
+      <c r="C56" s="48"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="48"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="48"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="52"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="5"/>
+      <c r="Q56" s="51"/>
+      <c r="R56" s="52"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="5"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="5"/>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="14"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="14"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="14"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="14"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="14"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="14"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="14"/>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B58" s="13"/>
+      <c r="C58" s="14"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="14"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="14"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="14"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="14"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="14"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="14"/>
+      <c r="W58" s="13"/>
+      <c r="X58" s="14"/>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B59" s="13"/>
+      <c r="C59" s="14"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="14"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="14"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="14"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="14"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="14"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="14"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="14"/>
+    </row>
+    <row r="60" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="5"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="5"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="5"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="5"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="5"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="5"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="5">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE365"/>
@@ -5832,10 +7493,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IG138"/>
+  <dimension ref="A1:IQ138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="HI49" workbookViewId="0">
-      <selection activeCell="HU51" sqref="HU51"/>
+    <sheetView tabSelected="1" topLeftCell="AE17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CF56" sqref="CF56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8882,7 +10543,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:241" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:251" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>10</v>
       </c>
@@ -9117,8 +10778,14 @@
       <c r="IG65">
         <v>165</v>
       </c>
-    </row>
-    <row r="66" spans="1:241" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="IJ65">
+        <v>166</v>
+      </c>
+      <c r="IM65">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:251" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="F66" s="2"/>
@@ -9275,8 +10942,12 @@
       <c r="ID66" s="52"/>
       <c r="IF66" s="45"/>
       <c r="IG66" s="46"/>
-    </row>
-    <row r="67" spans="1:241" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="II66" s="2"/>
+      <c r="IJ66" s="3"/>
+      <c r="IL66" s="2"/>
+      <c r="IM66" s="3"/>
+    </row>
+    <row r="67" spans="1:251" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="F67" s="13"/>
@@ -9433,8 +11104,12 @@
       <c r="ID67" s="14"/>
       <c r="IF67" s="47"/>
       <c r="IG67" s="48"/>
-    </row>
-    <row r="68" spans="1:241" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="II67" s="13"/>
+      <c r="IJ67" s="14"/>
+      <c r="IL67" s="13"/>
+      <c r="IM67" s="14"/>
+    </row>
+    <row r="68" spans="1:251" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="F68" s="1"/>
@@ -9591,8 +11266,12 @@
       <c r="ID68" s="14"/>
       <c r="IF68" s="2"/>
       <c r="IG68" s="3"/>
-    </row>
-    <row r="69" spans="1:241" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="II68" s="2"/>
+      <c r="IJ68" s="3"/>
+      <c r="IL68" s="2"/>
+      <c r="IM68" s="3"/>
+    </row>
+    <row r="69" spans="1:251" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="F69" s="1"/>
@@ -9749,8 +11428,12 @@
       <c r="ID69" s="14"/>
       <c r="IF69" s="13"/>
       <c r="IG69" s="14"/>
-    </row>
-    <row r="70" spans="1:241" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="II69" s="13"/>
+      <c r="IJ69" s="14"/>
+      <c r="IL69" s="13"/>
+      <c r="IM69" s="14"/>
+    </row>
+    <row r="70" spans="1:251" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="F70" s="1"/>
@@ -9910,8 +11593,12 @@
       <c r="ID70" s="14"/>
       <c r="IF70" s="13"/>
       <c r="IG70" s="14"/>
-    </row>
-    <row r="71" spans="1:241" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="II70" s="13"/>
+      <c r="IJ70" s="14"/>
+      <c r="IL70" s="13"/>
+      <c r="IM70" s="14"/>
+    </row>
+    <row r="71" spans="1:251" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="F71" s="1"/>
@@ -10068,8 +11755,12 @@
       <c r="ID71" s="52"/>
       <c r="IF71" s="4"/>
       <c r="IG71" s="5"/>
-    </row>
-    <row r="72" spans="1:241" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="II71" s="4"/>
+      <c r="IJ71" s="5"/>
+      <c r="IL71" s="13"/>
+      <c r="IM71" s="14"/>
+    </row>
+    <row r="72" spans="1:251" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="F72" s="1"/>
@@ -10226,8 +11917,12 @@
       <c r="ID72" s="14"/>
       <c r="IF72" s="13"/>
       <c r="IG72" s="14"/>
-    </row>
-    <row r="73" spans="1:241" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="II72" s="13"/>
+      <c r="IJ72" s="14"/>
+      <c r="IL72" s="45"/>
+      <c r="IM72" s="46"/>
+    </row>
+    <row r="73" spans="1:251" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="F73" s="1"/>
@@ -10384,8 +12079,12 @@
       <c r="ID73" s="14"/>
       <c r="IF73" s="13"/>
       <c r="IG73" s="14"/>
-    </row>
-    <row r="74" spans="1:241" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="II73" s="13"/>
+      <c r="IJ73" s="14"/>
+      <c r="IL73" s="47"/>
+      <c r="IM73" s="48"/>
+    </row>
+    <row r="74" spans="1:251" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
       <c r="F74" s="1"/>
@@ -10542,8 +12241,12 @@
       <c r="ID74" s="14"/>
       <c r="IF74" s="13"/>
       <c r="IG74" s="14"/>
-    </row>
-    <row r="75" spans="1:241" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="II74" s="45"/>
+      <c r="IJ74" s="46"/>
+      <c r="IL74" s="13"/>
+      <c r="IM74" s="14"/>
+    </row>
+    <row r="75" spans="1:251" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="F75" s="1"/>
@@ -10700,8 +12403,12 @@
       <c r="ID75" s="5"/>
       <c r="IF75" s="4"/>
       <c r="IG75" s="5"/>
-    </row>
-    <row r="76" spans="1:241" x14ac:dyDescent="0.3">
+      <c r="II75" s="47"/>
+      <c r="IJ75" s="48"/>
+      <c r="IL75" s="4"/>
+      <c r="IM75" s="5"/>
+    </row>
+    <row r="76" spans="1:251" x14ac:dyDescent="0.3">
       <c r="P76">
         <v>1</v>
       </c>
@@ -10929,6 +12636,15 @@
       </c>
       <c r="IG76">
         <v>76</v>
+      </c>
+      <c r="IJ76">
+        <v>77</v>
+      </c>
+      <c r="IM76">
+        <v>78</v>
+      </c>
+      <c r="IQ76">
+        <v>80</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.3">
@@ -10955,10 +12671,2028 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AD50"/>
+  <dimension ref="B1:AD36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AI9" sqref="AI9"/>
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="46"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="46"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="46"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="46"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="46"/>
+    </row>
+    <row r="3" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="48"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="56"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="56"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="56"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="56"/>
+    </row>
+    <row r="4" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="48"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="56"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="56"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="56"/>
+    </row>
+    <row r="5" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="48"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="56"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="56"/>
+    </row>
+    <row r="6" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="46"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="14"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="14"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="48"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="56"/>
+    </row>
+    <row r="7" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="56"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="46"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="14"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="14"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="59"/>
+    </row>
+    <row r="8" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="56"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="56"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="46"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="14"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="48"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="48"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="48"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="52"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="5"/>
+    </row>
+    <row r="10" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="3"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="46"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="46"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="46"/>
+    </row>
+    <row r="12" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="14"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="56"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="56"/>
+    </row>
+    <row r="13" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="46"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="46"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="48"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="48"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="56"/>
+    </row>
+    <row r="14" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="56"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="56"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="14"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="14"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="48"/>
+    </row>
+    <row r="15" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="48"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="56"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="5"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="14"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="14"/>
+    </row>
+    <row r="16" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="46"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="48"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="3"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="52"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="5"/>
+    </row>
+    <row r="17" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="14"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="14"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="14"/>
+    </row>
+    <row r="18" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="52"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="5"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="52"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="5"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="5"/>
+    </row>
+    <row r="19" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="52"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="46"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="46"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="46"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="14"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="48"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="48"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="48"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="5"/>
+    </row>
+    <row r="22" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="14"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="14"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="14"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="14"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="46"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="14"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="14"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="5"/>
+    </row>
+    <row r="24" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="48"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="56"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="3"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="52"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="46"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="48"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="14"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="14"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="48"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="5"/>
+    </row>
+    <row r="26" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="46"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="14"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="14"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="14"/>
+    </row>
+    <row r="27" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="48"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="52"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="5"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="5"/>
+    </row>
+    <row r="28" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="3"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="3"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="3"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="52"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="52"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="52"/>
+      <c r="AC29" s="45"/>
+      <c r="AD29" s="46"/>
+    </row>
+    <row r="30" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="14"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="14"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="14"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="14"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="3"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="14"/>
+      <c r="AC30" s="47"/>
+      <c r="AD30" s="48"/>
+    </row>
+    <row r="31" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="52"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="52"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="46"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="5"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="5"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="14"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="14"/>
+    </row>
+    <row r="32" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="14"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="3"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="48"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="3"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="3"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="52"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="5"/>
+    </row>
+    <row r="33" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="52"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="46"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="5"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="14"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="3"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="5"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="14"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="14"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="3"/>
+    </row>
+    <row r="34" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="14"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="48"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="3"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="52"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="5"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="3"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="52"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="5"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="5"/>
+    </row>
+    <row r="35" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="14"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="14"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="14"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="14"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="14"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="14"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="3"/>
+    </row>
+    <row r="36" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="47"/>
+      <c r="C36" s="48"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="52"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="5"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="52"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="5"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="5"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="52"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="5"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="5"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AW45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+      <c r="AH2" s="9"/>
+      <c r="AW2" s="9"/>
+    </row>
+    <row r="3" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="14"/>
+      <c r="AH3" s="9"/>
+      <c r="AW3" s="9"/>
+    </row>
+    <row r="4" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="14"/>
+      <c r="AH4" s="9"/>
+      <c r="AW4" s="9"/>
+    </row>
+    <row r="5" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
+      <c r="AH5" s="9"/>
+      <c r="AW5" s="9"/>
+    </row>
+    <row r="6" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="3"/>
+      <c r="AH6" s="9"/>
+      <c r="AW6" s="9"/>
+    </row>
+    <row r="7" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="5"/>
+      <c r="AH7" s="9"/>
+      <c r="AW7" s="9"/>
+    </row>
+    <row r="8" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="46"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="3"/>
+      <c r="AH8" s="9"/>
+      <c r="AW8" s="9"/>
+    </row>
+    <row r="9" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="48"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5"/>
+      <c r="AH9" s="9"/>
+      <c r="AW9" s="9"/>
+    </row>
+    <row r="10" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="52"/>
+      <c r="S11" s="9"/>
+    </row>
+    <row r="12" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="S12" s="9"/>
+    </row>
+    <row r="13" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="S13" s="9"/>
+    </row>
+    <row r="14" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="S14" s="9"/>
+    </row>
+    <row r="15" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="S15" s="9"/>
+    </row>
+    <row r="16" spans="2:49" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
+      <c r="S16" s="9"/>
+    </row>
+    <row r="17" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="S17" s="9"/>
+    </row>
+    <row r="18" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
+      <c r="S18" s="9"/>
+    </row>
+    <row r="19" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="3"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="14"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="14"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="3"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="3"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="14"/>
+    </row>
+    <row r="23" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="14"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="14"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="46"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="14"/>
+    </row>
+    <row r="27" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="48"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="52"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="55"/>
+      <c r="C30" s="56"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="14"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
+    </row>
+    <row r="35" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="51"/>
+      <c r="C36" s="52"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="52"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="52"/>
+    </row>
+    <row r="37" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="14"/>
+    </row>
+    <row r="40" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="55"/>
+      <c r="C40" s="56"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="47"/>
+      <c r="C41" s="48"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="5"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="14"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="14"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="14"/>
+    </row>
+    <row r="45" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="5">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AE60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="3"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="3"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="14"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="14"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="14"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="14"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="14"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="14"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="14"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="14"/>
+    </row>
+    <row r="5" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="5"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="14"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="5"/>
+    </row>
+    <row r="6" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="52"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="3"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="3"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="5"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="14"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="14"/>
+    </row>
+    <row r="8" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="46"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="3"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="5"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="52"/>
+    </row>
+    <row r="9" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="46"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="56"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="14"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="3"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="14"/>
+    </row>
+    <row r="10" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="52"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="48"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="48"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="52"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="5"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="5"/>
+    </row>
+    <row r="11" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="52"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="14"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="14"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="14"/>
+    </row>
+    <row r="16" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="5"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="55"/>
+      <c r="C18" s="56"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="14"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="46"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="48"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="46"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="3"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="3"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="14"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="14"/>
+    </row>
+    <row r="24" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="3"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="3"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="3"/>
+    </row>
+    <row r="25" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="14"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="14"/>
+    </row>
+    <row r="26" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="14"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="14"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="3"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="3"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="52"/>
+    </row>
+    <row r="27" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="5"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="14"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="14"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="14"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="14"/>
+    </row>
+    <row r="28" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="54"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="3"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="46"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="3"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="52"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="14"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="14"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="14"/>
+    </row>
+    <row r="29" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="56"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="14"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="14"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="5"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="14"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="14"/>
+    </row>
+    <row r="30" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="48"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="52"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="5"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="3"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="52"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="5"/>
+    </row>
+    <row r="31" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X31" s="13"/>
+      <c r="Y31" s="14"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="14"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="14"/>
+    </row>
+    <row r="32" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="46"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="52"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="3"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="52"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="14"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="14"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="14"/>
+    </row>
+    <row r="33" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="55"/>
+      <c r="C33" s="56"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="56"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="14"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="14"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="14"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="14"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="14"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="14"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="14"/>
+    </row>
+    <row r="34" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="58"/>
+      <c r="C34" s="59"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="48"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="52"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="5"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="52"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="5"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="52"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="5"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="5"/>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="3"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="14"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="3"/>
+    </row>
+    <row r="36" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="14"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="14"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="14"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="14"/>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="14"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="14"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="14"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="14"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="14"/>
+    </row>
+    <row r="38" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="14"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="14"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="5"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="5"/>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="46"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="46"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="14"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="14"/>
+    </row>
+    <row r="40" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="47"/>
+      <c r="C40" s="48"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="5"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="48"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="48"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="5"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="5"/>
+    </row>
+    <row r="41" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="52"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="46"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="46"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="3"/>
+    </row>
+    <row r="43" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="48"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="56"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="5"/>
+    </row>
+    <row r="44" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="14"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="14"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="56"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="3"/>
+    </row>
+    <row r="45" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="47"/>
+      <c r="C45" s="48"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="52"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="5"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="48"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="5"/>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="14"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="3"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="14"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="3"/>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="14"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="14"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="14"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="14"/>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="14"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="14"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="14"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="14"/>
+    </row>
+    <row r="49" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="14"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="14"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="14"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="14"/>
+    </row>
+    <row r="50" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="51"/>
+      <c r="C50" s="52"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="52"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="52"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="52"/>
+      <c r="Q50" s="51"/>
+      <c r="R50" s="52"/>
+    </row>
+    <row r="51" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="45"/>
+      <c r="C52" s="46"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="3"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="46"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="46"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="3"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="3"/>
+      <c r="W52" s="51"/>
+      <c r="X52" s="52"/>
+    </row>
+    <row r="53" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="55"/>
+      <c r="C53" s="56"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="14"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="14"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="48"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="56"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="5"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="14"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="14"/>
+    </row>
+    <row r="54" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="55"/>
+      <c r="C54" s="56"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="46"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="14"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="14"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="48"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="3"/>
+      <c r="T54" s="51"/>
+      <c r="U54" s="52"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="5"/>
+    </row>
+    <row r="55" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="55"/>
+      <c r="C55" s="56"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="56"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="46"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="14"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="14"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="14"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="14"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="47"/>
+      <c r="C56" s="48"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="48"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="48"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="52"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="5"/>
+      <c r="Q56" s="51"/>
+      <c r="R56" s="52"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="5"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="5"/>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="14"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="14"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="14"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="14"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="14"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="14"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="14"/>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B58" s="13"/>
+      <c r="C58" s="14"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="14"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="14"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="14"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="14"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="14"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="14"/>
+      <c r="W58" s="13"/>
+      <c r="X58" s="14"/>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B59" s="13"/>
+      <c r="C59" s="14"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="14"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="14"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="14"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="14"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="14"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="14"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="14"/>
+    </row>
+    <row r="60" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="5"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="5"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="5"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="5"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="5"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="5"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="5">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:DJ60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11776,7 +15510,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:114" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
       <c r="E49" s="13"/>
@@ -11786,7 +15520,7 @@
       <c r="K49" s="13"/>
       <c r="L49" s="14"/>
     </row>
-    <row r="50" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:114" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="51"/>
       <c r="C50" s="52"/>
       <c r="E50" s="4"/>
@@ -11796,13 +15530,2373 @@
       <c r="K50" s="4"/>
       <c r="L50" s="5"/>
     </row>
+    <row r="51" spans="2:114" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="2:114" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T52" s="2"/>
+      <c r="U52" s="3"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="3"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="3"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="3"/>
+      <c r="AF52" s="51"/>
+      <c r="AG52" s="52"/>
+      <c r="AI52" s="51"/>
+      <c r="AJ52" s="52"/>
+      <c r="AL52" s="51"/>
+      <c r="AM52" s="52"/>
+      <c r="AO52" s="45"/>
+      <c r="AP52" s="46"/>
+      <c r="AR52" s="45"/>
+      <c r="AS52" s="46"/>
+      <c r="AU52" s="45"/>
+      <c r="AV52" s="46"/>
+      <c r="AX52" s="2"/>
+      <c r="AY52" s="3"/>
+      <c r="BA52" s="51"/>
+      <c r="BB52" s="52"/>
+      <c r="BD52" s="45"/>
+      <c r="BE52" s="46"/>
+      <c r="BG52" s="45"/>
+      <c r="BH52" s="46"/>
+      <c r="BJ52" s="2"/>
+      <c r="BK52" s="3"/>
+      <c r="BM52" s="51"/>
+      <c r="BN52" s="52"/>
+      <c r="BP52" s="45"/>
+      <c r="BQ52" s="46"/>
+      <c r="BS52" s="2"/>
+      <c r="BT52" s="3"/>
+      <c r="BV52" s="51"/>
+      <c r="BW52" s="52"/>
+      <c r="BY52" s="2"/>
+      <c r="BZ52" s="3"/>
+      <c r="CB52" s="2"/>
+      <c r="CC52" s="3"/>
+      <c r="CE52" s="2"/>
+      <c r="CF52" s="3"/>
+      <c r="CH52" s="2"/>
+      <c r="CI52" s="3"/>
+      <c r="CK52" s="51"/>
+      <c r="CL52" s="52"/>
+      <c r="CN52" s="2"/>
+      <c r="CO52" s="3"/>
+      <c r="CQ52" s="2"/>
+      <c r="CR52" s="3"/>
+      <c r="CT52" s="2"/>
+      <c r="CU52" s="3"/>
+      <c r="CW52" s="51"/>
+      <c r="CX52" s="52"/>
+      <c r="CZ52" s="2"/>
+      <c r="DA52" s="3"/>
+      <c r="DC52" s="2"/>
+      <c r="DD52" s="3"/>
+      <c r="DF52" s="2"/>
+      <c r="DG52" s="3"/>
+      <c r="DI52" s="51"/>
+      <c r="DJ52" s="52"/>
+    </row>
+    <row r="53" spans="2:114" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T53" s="13"/>
+      <c r="U53" s="14"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="14"/>
+      <c r="Z53" s="13"/>
+      <c r="AA53" s="14"/>
+      <c r="AC53" s="13"/>
+      <c r="AD53" s="14"/>
+      <c r="AF53" s="13"/>
+      <c r="AG53" s="14"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="3"/>
+      <c r="AL53" s="13"/>
+      <c r="AM53" s="14"/>
+      <c r="AO53" s="47"/>
+      <c r="AP53" s="48"/>
+      <c r="AR53" s="47"/>
+      <c r="AS53" s="48"/>
+      <c r="AU53" s="55"/>
+      <c r="AV53" s="56"/>
+      <c r="AX53" s="13"/>
+      <c r="AY53" s="14"/>
+      <c r="BA53" s="13"/>
+      <c r="BB53" s="14"/>
+      <c r="BD53" s="47"/>
+      <c r="BE53" s="48"/>
+      <c r="BG53" s="55"/>
+      <c r="BH53" s="56"/>
+      <c r="BJ53" s="13"/>
+      <c r="BK53" s="14"/>
+      <c r="BM53" s="13"/>
+      <c r="BN53" s="14"/>
+      <c r="BP53" s="47"/>
+      <c r="BQ53" s="48"/>
+      <c r="BS53" s="13"/>
+      <c r="BT53" s="14"/>
+      <c r="BV53" s="13"/>
+      <c r="BW53" s="14"/>
+      <c r="BY53" s="13"/>
+      <c r="BZ53" s="14"/>
+      <c r="CB53" s="13"/>
+      <c r="CC53" s="14"/>
+      <c r="CE53" s="13"/>
+      <c r="CF53" s="14"/>
+      <c r="CH53" s="13"/>
+      <c r="CI53" s="14"/>
+      <c r="CK53" s="13"/>
+      <c r="CL53" s="14"/>
+      <c r="CN53" s="13"/>
+      <c r="CO53" s="14"/>
+      <c r="CQ53" s="13"/>
+      <c r="CR53" s="14"/>
+      <c r="CT53" s="13"/>
+      <c r="CU53" s="14"/>
+      <c r="CW53" s="13"/>
+      <c r="CX53" s="14"/>
+      <c r="CZ53" s="4"/>
+      <c r="DA53" s="5"/>
+      <c r="DC53" s="4"/>
+      <c r="DD53" s="5"/>
+      <c r="DF53" s="13"/>
+      <c r="DG53" s="14"/>
+      <c r="DI53" s="13"/>
+      <c r="DJ53" s="14"/>
+    </row>
+    <row r="54" spans="2:114" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T54" s="13"/>
+      <c r="U54" s="14"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="14"/>
+      <c r="Z54" s="13"/>
+      <c r="AA54" s="14"/>
+      <c r="AC54" s="13"/>
+      <c r="AD54" s="14"/>
+      <c r="AF54" s="13"/>
+      <c r="AG54" s="14"/>
+      <c r="AI54" s="13"/>
+      <c r="AJ54" s="14"/>
+      <c r="AL54" s="13"/>
+      <c r="AM54" s="14"/>
+      <c r="AO54" s="2"/>
+      <c r="AP54" s="3"/>
+      <c r="AR54" s="13"/>
+      <c r="AS54" s="14"/>
+      <c r="AU54" s="47"/>
+      <c r="AV54" s="48"/>
+      <c r="AX54" s="45"/>
+      <c r="AY54" s="46"/>
+      <c r="BA54" s="13"/>
+      <c r="BB54" s="14"/>
+      <c r="BD54" s="13"/>
+      <c r="BE54" s="14"/>
+      <c r="BG54" s="47"/>
+      <c r="BH54" s="48"/>
+      <c r="BJ54" s="45"/>
+      <c r="BK54" s="46"/>
+      <c r="BM54" s="13"/>
+      <c r="BN54" s="14"/>
+      <c r="BP54" s="13"/>
+      <c r="BQ54" s="14"/>
+      <c r="BS54" s="51"/>
+      <c r="BT54" s="52"/>
+      <c r="BV54" s="4"/>
+      <c r="BW54" s="5"/>
+      <c r="BY54" s="2"/>
+      <c r="BZ54" s="3"/>
+      <c r="CB54" s="13"/>
+      <c r="CC54" s="14"/>
+      <c r="CE54" s="13"/>
+      <c r="CF54" s="14"/>
+      <c r="CH54" s="13"/>
+      <c r="CI54" s="14"/>
+      <c r="CK54" s="13"/>
+      <c r="CL54" s="14"/>
+      <c r="CN54" s="2"/>
+      <c r="CO54" s="3"/>
+      <c r="CQ54" s="2"/>
+      <c r="CR54" s="3"/>
+      <c r="CT54" s="51"/>
+      <c r="CU54" s="52"/>
+      <c r="CW54" s="4"/>
+      <c r="CX54" s="5"/>
+      <c r="CZ54" s="2"/>
+      <c r="DA54" s="3"/>
+      <c r="DC54" s="2"/>
+      <c r="DD54" s="3"/>
+      <c r="DF54" s="51"/>
+      <c r="DG54" s="52"/>
+      <c r="DI54" s="4"/>
+      <c r="DJ54" s="5"/>
+    </row>
+    <row r="55" spans="2:114" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T55" s="13"/>
+      <c r="U55" s="14"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="14"/>
+      <c r="Z55" s="13"/>
+      <c r="AA55" s="14"/>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="5"/>
+      <c r="AF55" s="13"/>
+      <c r="AG55" s="14"/>
+      <c r="AI55" s="13"/>
+      <c r="AJ55" s="14"/>
+      <c r="AL55" s="13"/>
+      <c r="AM55" s="14"/>
+      <c r="AO55" s="13"/>
+      <c r="AP55" s="14"/>
+      <c r="AR55" s="13"/>
+      <c r="AS55" s="14"/>
+      <c r="AU55" s="13"/>
+      <c r="AV55" s="14"/>
+      <c r="AX55" s="55"/>
+      <c r="AY55" s="56"/>
+      <c r="BA55" s="45"/>
+      <c r="BB55" s="46"/>
+      <c r="BD55" s="13"/>
+      <c r="BE55" s="14"/>
+      <c r="BG55" s="13"/>
+      <c r="BH55" s="14"/>
+      <c r="BJ55" s="47"/>
+      <c r="BK55" s="48"/>
+      <c r="BM55" s="51"/>
+      <c r="BN55" s="52"/>
+      <c r="BP55" s="4"/>
+      <c r="BQ55" s="5"/>
+      <c r="BS55" s="13"/>
+      <c r="BT55" s="14"/>
+      <c r="BV55" s="2"/>
+      <c r="BW55" s="3"/>
+      <c r="BY55" s="13"/>
+      <c r="BZ55" s="14"/>
+      <c r="CB55" s="4"/>
+      <c r="CC55" s="5"/>
+      <c r="CE55" s="13"/>
+      <c r="CF55" s="14"/>
+      <c r="CH55" s="4"/>
+      <c r="CI55" s="5"/>
+      <c r="CK55" s="13"/>
+      <c r="CL55" s="14"/>
+      <c r="CN55" s="13"/>
+      <c r="CO55" s="14"/>
+      <c r="CQ55" s="13"/>
+      <c r="CR55" s="14"/>
+      <c r="CT55" s="13"/>
+      <c r="CU55" s="14"/>
+      <c r="CW55" s="2"/>
+      <c r="CX55" s="3"/>
+      <c r="CZ55" s="4"/>
+      <c r="DA55" s="5"/>
+      <c r="DC55" s="13"/>
+      <c r="DD55" s="14"/>
+      <c r="DF55" s="13"/>
+      <c r="DG55" s="14"/>
+      <c r="DI55" s="2"/>
+      <c r="DJ55" s="3"/>
+    </row>
+    <row r="56" spans="2:114" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T56" s="45"/>
+      <c r="U56" s="46"/>
+      <c r="W56" s="45"/>
+      <c r="X56" s="46"/>
+      <c r="Z56" s="51"/>
+      <c r="AA56" s="52"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="3"/>
+      <c r="AF56" s="13"/>
+      <c r="AG56" s="14"/>
+      <c r="AI56" s="13"/>
+      <c r="AJ56" s="14"/>
+      <c r="AL56" s="4"/>
+      <c r="AM56" s="5"/>
+      <c r="AO56" s="13"/>
+      <c r="AP56" s="14"/>
+      <c r="AR56" s="13"/>
+      <c r="AS56" s="14"/>
+      <c r="AU56" s="13"/>
+      <c r="AV56" s="14"/>
+      <c r="AX56" s="47"/>
+      <c r="AY56" s="48"/>
+      <c r="BA56" s="47"/>
+      <c r="BB56" s="48"/>
+      <c r="BD56" s="51"/>
+      <c r="BE56" s="52"/>
+      <c r="BG56" s="4"/>
+      <c r="BH56" s="5"/>
+      <c r="BJ56" s="13"/>
+      <c r="BK56" s="14"/>
+      <c r="BM56" s="13"/>
+      <c r="BN56" s="14"/>
+      <c r="BP56" s="2"/>
+      <c r="BQ56" s="3"/>
+      <c r="BS56" s="13"/>
+      <c r="BT56" s="14"/>
+      <c r="BV56" s="13"/>
+      <c r="BW56" s="14"/>
+      <c r="BY56" s="13"/>
+      <c r="BZ56" s="14"/>
+      <c r="CB56" s="2"/>
+      <c r="CC56" s="3"/>
+      <c r="CE56" s="51"/>
+      <c r="CF56" s="52"/>
+      <c r="CH56" s="2"/>
+      <c r="CI56" s="3"/>
+      <c r="CK56" s="4"/>
+      <c r="CL56" s="5"/>
+      <c r="CN56" s="13"/>
+      <c r="CO56" s="14"/>
+      <c r="CQ56" s="13"/>
+      <c r="CR56" s="14"/>
+      <c r="CT56" s="13"/>
+      <c r="CU56" s="14"/>
+      <c r="CW56" s="13"/>
+      <c r="CX56" s="14"/>
+      <c r="CZ56" s="2"/>
+      <c r="DA56" s="3"/>
+      <c r="DC56" s="51"/>
+      <c r="DD56" s="52"/>
+      <c r="DF56" s="4"/>
+      <c r="DG56" s="5"/>
+      <c r="DI56" s="4"/>
+      <c r="DJ56" s="5"/>
+    </row>
+    <row r="57" spans="2:114" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T57" s="55"/>
+      <c r="U57" s="56"/>
+      <c r="W57" s="47"/>
+      <c r="X57" s="48"/>
+      <c r="Z57" s="13"/>
+      <c r="AA57" s="14"/>
+      <c r="AC57" s="13"/>
+      <c r="AD57" s="14"/>
+      <c r="AF57" s="45"/>
+      <c r="AG57" s="46"/>
+      <c r="AI57" s="51"/>
+      <c r="AJ57" s="52"/>
+      <c r="AL57" s="2"/>
+      <c r="AM57" s="3"/>
+      <c r="AO57" s="13"/>
+      <c r="AP57" s="14"/>
+      <c r="AR57" s="4"/>
+      <c r="AS57" s="5"/>
+      <c r="AU57" s="13"/>
+      <c r="AV57" s="14"/>
+      <c r="AX57" s="13"/>
+      <c r="AY57" s="14"/>
+      <c r="BA57" s="13"/>
+      <c r="BB57" s="14"/>
+      <c r="BD57" s="13"/>
+      <c r="BE57" s="14"/>
+      <c r="BG57" s="13"/>
+      <c r="BH57" s="14"/>
+      <c r="BJ57" s="13"/>
+      <c r="BK57" s="14"/>
+      <c r="BM57" s="13"/>
+      <c r="BN57" s="14"/>
+      <c r="BP57" s="13"/>
+      <c r="BQ57" s="14"/>
+      <c r="BS57" s="13"/>
+      <c r="BT57" s="14"/>
+      <c r="BV57" s="13"/>
+      <c r="BW57" s="14"/>
+      <c r="BY57" s="13"/>
+      <c r="BZ57" s="14"/>
+      <c r="CB57" s="4"/>
+      <c r="CC57" s="5"/>
+      <c r="CE57" s="13"/>
+      <c r="CF57" s="14"/>
+      <c r="CH57" s="13"/>
+      <c r="CI57" s="14"/>
+      <c r="CK57" s="2"/>
+      <c r="CL57" s="3"/>
+      <c r="CN57" s="4"/>
+      <c r="CO57" s="5"/>
+      <c r="CQ57" s="13"/>
+      <c r="CR57" s="14"/>
+      <c r="CT57" s="13"/>
+      <c r="CU57" s="14"/>
+      <c r="CW57" s="13"/>
+      <c r="CX57" s="14"/>
+      <c r="CZ57" s="13"/>
+      <c r="DA57" s="14"/>
+      <c r="DC57" s="13"/>
+      <c r="DD57" s="14"/>
+      <c r="DF57" s="13"/>
+      <c r="DG57" s="14"/>
+      <c r="DI57" s="13"/>
+      <c r="DJ57" s="14"/>
+    </row>
+    <row r="58" spans="2:114" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T58" s="47"/>
+      <c r="U58" s="48"/>
+      <c r="W58" s="13"/>
+      <c r="X58" s="14"/>
+      <c r="Z58" s="13"/>
+      <c r="AA58" s="14"/>
+      <c r="AC58" s="45"/>
+      <c r="AD58" s="46"/>
+      <c r="AF58" s="47"/>
+      <c r="AG58" s="48"/>
+      <c r="AI58" s="13"/>
+      <c r="AJ58" s="14"/>
+      <c r="AL58" s="13"/>
+      <c r="AM58" s="14"/>
+      <c r="AO58" s="53"/>
+      <c r="AP58" s="54"/>
+      <c r="AR58" s="2"/>
+      <c r="AS58" s="3"/>
+      <c r="AU58" s="13"/>
+      <c r="AV58" s="14"/>
+      <c r="AX58" s="13"/>
+      <c r="AY58" s="14"/>
+      <c r="BA58" s="13"/>
+      <c r="BB58" s="14"/>
+      <c r="BD58" s="13"/>
+      <c r="BE58" s="14"/>
+      <c r="BG58" s="13"/>
+      <c r="BH58" s="14"/>
+      <c r="BJ58" s="13"/>
+      <c r="BK58" s="14"/>
+      <c r="BM58" s="13"/>
+      <c r="BN58" s="14"/>
+      <c r="BP58" s="13"/>
+      <c r="BQ58" s="14"/>
+      <c r="BS58" s="13"/>
+      <c r="BT58" s="14"/>
+      <c r="BV58" s="13"/>
+      <c r="BW58" s="14"/>
+      <c r="BY58" s="45"/>
+      <c r="BZ58" s="46"/>
+      <c r="CB58" s="2"/>
+      <c r="CC58" s="3"/>
+      <c r="CE58" s="4"/>
+      <c r="CF58" s="5"/>
+      <c r="CH58" s="51"/>
+      <c r="CI58" s="52"/>
+      <c r="CK58" s="4"/>
+      <c r="CL58" s="5"/>
+      <c r="CN58" s="2"/>
+      <c r="CO58" s="3"/>
+      <c r="CQ58" s="51"/>
+      <c r="CR58" s="52"/>
+      <c r="CT58" s="4"/>
+      <c r="CU58" s="5"/>
+      <c r="CW58" s="4"/>
+      <c r="CX58" s="5"/>
+      <c r="CZ58" s="13"/>
+      <c r="DA58" s="14"/>
+      <c r="DC58" s="13"/>
+      <c r="DD58" s="14"/>
+      <c r="DF58" s="13"/>
+      <c r="DG58" s="14"/>
+      <c r="DI58" s="13"/>
+      <c r="DJ58" s="14"/>
+    </row>
+    <row r="59" spans="2:114" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T59" s="13"/>
+      <c r="U59" s="14"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="14"/>
+      <c r="Z59" s="45"/>
+      <c r="AA59" s="46"/>
+      <c r="AC59" s="55"/>
+      <c r="AD59" s="56"/>
+      <c r="AF59" s="13"/>
+      <c r="AG59" s="14"/>
+      <c r="AI59" s="13"/>
+      <c r="AJ59" s="14"/>
+      <c r="AL59" s="45"/>
+      <c r="AM59" s="46"/>
+      <c r="AO59" s="2"/>
+      <c r="AP59" s="3"/>
+      <c r="AR59" s="13"/>
+      <c r="AS59" s="14"/>
+      <c r="AU59" s="2"/>
+      <c r="AV59" s="3"/>
+      <c r="AX59" s="13"/>
+      <c r="AY59" s="14"/>
+      <c r="BA59" s="13"/>
+      <c r="BB59" s="14"/>
+      <c r="BD59" s="13"/>
+      <c r="BE59" s="14"/>
+      <c r="BG59" s="13"/>
+      <c r="BH59" s="14"/>
+      <c r="BJ59" s="13"/>
+      <c r="BK59" s="14"/>
+      <c r="BM59" s="13"/>
+      <c r="BN59" s="14"/>
+      <c r="BP59" s="13"/>
+      <c r="BQ59" s="14"/>
+      <c r="BS59" s="45"/>
+      <c r="BT59" s="46"/>
+      <c r="BV59" s="45"/>
+      <c r="BW59" s="46"/>
+      <c r="BY59" s="55"/>
+      <c r="BZ59" s="56"/>
+      <c r="CB59" s="13"/>
+      <c r="CC59" s="14"/>
+      <c r="CE59" s="2"/>
+      <c r="CF59" s="3"/>
+      <c r="CH59" s="13"/>
+      <c r="CI59" s="14"/>
+      <c r="CK59" s="2"/>
+      <c r="CL59" s="3"/>
+      <c r="CN59" s="13"/>
+      <c r="CO59" s="14"/>
+      <c r="CQ59" s="13"/>
+      <c r="CR59" s="14"/>
+      <c r="CT59" s="13"/>
+      <c r="CU59" s="14"/>
+      <c r="CW59" s="13"/>
+      <c r="CX59" s="14"/>
+      <c r="CZ59" s="13"/>
+      <c r="DA59" s="14"/>
+      <c r="DC59" s="13"/>
+      <c r="DD59" s="14"/>
+      <c r="DF59" s="13"/>
+      <c r="DG59" s="14"/>
+      <c r="DI59" s="13"/>
+      <c r="DJ59" s="14"/>
+    </row>
+    <row r="60" spans="2:114" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T60" s="4"/>
+      <c r="U60" s="5"/>
+      <c r="W60" s="51"/>
+      <c r="X60" s="52"/>
+      <c r="Z60" s="47"/>
+      <c r="AA60" s="48"/>
+      <c r="AC60" s="47"/>
+      <c r="AD60" s="48"/>
+      <c r="AF60" s="4"/>
+      <c r="AG60" s="5"/>
+      <c r="AI60" s="51"/>
+      <c r="AJ60" s="52"/>
+      <c r="AL60" s="47"/>
+      <c r="AM60" s="48"/>
+      <c r="AO60" s="4"/>
+      <c r="AP60" s="5"/>
+      <c r="AR60" s="51"/>
+      <c r="AS60" s="52"/>
+      <c r="AU60" s="4"/>
+      <c r="AV60" s="5"/>
+      <c r="AX60" s="4"/>
+      <c r="AY60" s="5"/>
+      <c r="BA60" s="4"/>
+      <c r="BB60" s="5"/>
+      <c r="BD60" s="4"/>
+      <c r="BE60" s="5"/>
+      <c r="BG60" s="4"/>
+      <c r="BH60" s="5"/>
+      <c r="BJ60" s="51"/>
+      <c r="BK60" s="52"/>
+      <c r="BM60" s="51"/>
+      <c r="BN60" s="52"/>
+      <c r="BP60" s="51"/>
+      <c r="BQ60" s="52"/>
+      <c r="BS60" s="47"/>
+      <c r="BT60" s="48"/>
+      <c r="BV60" s="47"/>
+      <c r="BW60" s="48"/>
+      <c r="BY60" s="47"/>
+      <c r="BZ60" s="48"/>
+      <c r="CB60" s="51"/>
+      <c r="CC60" s="52"/>
+      <c r="CE60" s="4"/>
+      <c r="CF60" s="5"/>
+      <c r="CH60" s="4"/>
+      <c r="CI60" s="5"/>
+      <c r="CK60" s="4"/>
+      <c r="CL60" s="5"/>
+      <c r="CN60" s="51"/>
+      <c r="CO60" s="52"/>
+      <c r="CQ60" s="4"/>
+      <c r="CR60" s="5"/>
+      <c r="CT60" s="4"/>
+      <c r="CU60" s="5"/>
+      <c r="CW60" s="4"/>
+      <c r="CX60" s="5"/>
+      <c r="CZ60" s="51"/>
+      <c r="DA60" s="52"/>
+      <c r="DC60" s="4"/>
+      <c r="DD60" s="5"/>
+      <c r="DF60" s="4"/>
+      <c r="DG60" s="5"/>
+      <c r="DI60" s="4"/>
+      <c r="DJ60" s="5">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:BN77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="AK51" sqref="AK51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="3"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="3"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="3"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="3"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="3"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="3"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="3"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="3"/>
+    </row>
+    <row r="3" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="14"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="14"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="14"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="14"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="14"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="14"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="14"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="14"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="14"/>
+    </row>
+    <row r="4" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="14"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="14"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="14"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="14"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="14"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="14"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="14"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="14"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="14"/>
+    </row>
+    <row r="5" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="14"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="5"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="5"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="5"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="14"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="14"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="14"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="5"/>
+    </row>
+    <row r="6" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="46"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="46"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="46"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="3"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="3"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="3"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="52"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="52"/>
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="46"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="3"/>
+    </row>
+    <row r="7" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="48"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="56"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="5"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="14"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="14"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="14"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="3"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="48"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="5"/>
+    </row>
+    <row r="8" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="48"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="3"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="52"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="46"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="5"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="14"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="3"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="3"/>
+    </row>
+    <row r="9" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="46"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="3"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="48"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="14"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="14"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="48"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="3"/>
+      <c r="AI9" s="51"/>
+      <c r="AJ9" s="52"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="5"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="5"/>
+    </row>
+    <row r="10" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="46"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="3"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="46"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="14"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="3"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="14"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="14"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="3"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="14"/>
+    </row>
+    <row r="11" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="48"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="52"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="5"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="48"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="52"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="5"/>
+      <c r="AF11" s="51"/>
+      <c r="AG11" s="52"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="5"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="5"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="5"/>
+    </row>
+    <row r="12" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="52"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="52"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="52"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="52"/>
+    </row>
+    <row r="14" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="14"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="14"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="14"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="14"/>
+    </row>
+    <row r="15" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="14"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="14"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="14"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="14"/>
+    </row>
+    <row r="16" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="14"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="14"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="14"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="14"/>
+    </row>
+    <row r="17" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="5"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="5"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="14"/>
+    </row>
+    <row r="18" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="46"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="46"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="3"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="3"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="52"/>
+    </row>
+    <row r="19" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="48"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="56"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="5"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="14"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="14"/>
+    </row>
+    <row r="20" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="48"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="3"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="52"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="5"/>
+    </row>
+    <row r="21" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="55"/>
+      <c r="C21" s="56"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="46"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="3"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="14"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="14"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="3"/>
+    </row>
+    <row r="22" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="48"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="48"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="52"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="5"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="52"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="5"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="5"/>
+    </row>
+    <row r="23" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="46"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="3"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="46"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="3"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="3"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="3"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="3"/>
+    </row>
+    <row r="25" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="48"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="48"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="48"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="14"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="14"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="14"/>
+      <c r="AP25" s="13"/>
+      <c r="AQ25" s="14"/>
+    </row>
+    <row r="26" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="3"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="14"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="3"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="3"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="3"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="3"/>
+    </row>
+    <row r="27" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="14"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="14"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="14"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="14"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="14"/>
+      <c r="AP27" s="13"/>
+      <c r="AQ27" s="14"/>
+    </row>
+    <row r="28" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="14"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="14"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="14"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="14"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="14"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="14"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="14"/>
+      <c r="AP28" s="13"/>
+      <c r="AQ28" s="14"/>
+    </row>
+    <row r="29" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="14"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="14"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="5"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="5"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="14"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="14"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="5"/>
+    </row>
+    <row r="30" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="46"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="46"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="3"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="14"/>
+      <c r="AC30" s="45"/>
+      <c r="AD30" s="46"/>
+      <c r="AF30" s="51"/>
+      <c r="AG30" s="52"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="3"/>
+    </row>
+    <row r="31" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="55"/>
+      <c r="C31" s="56"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="48"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="56"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="5"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="14"/>
+      <c r="AC31" s="47"/>
+      <c r="AD31" s="48"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="14"/>
+      <c r="AP31" s="4"/>
+      <c r="AQ31" s="5"/>
+    </row>
+    <row r="32" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="55"/>
+      <c r="C32" s="56"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="46"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="3"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="56"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="3"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="46"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="14"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="14"/>
+      <c r="AP32" s="13"/>
+      <c r="AQ32" s="14"/>
+    </row>
+    <row r="33" spans="2:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="48"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="5"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="48"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="5"/>
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="48"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="5"/>
+      <c r="AF33" s="51"/>
+      <c r="AG33" s="52"/>
+      <c r="AP33" s="4"/>
+      <c r="AQ33" s="5"/>
+    </row>
+    <row r="34" spans="2:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="46"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="46"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="3"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="52"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="3"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="52"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="3"/>
+      <c r="AF35" s="51"/>
+      <c r="AG35" s="52"/>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="3"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="3"/>
+      <c r="AU35" s="2"/>
+      <c r="AV35" s="3"/>
+      <c r="AX35" s="51"/>
+      <c r="AY35" s="52"/>
+      <c r="BA35" s="51"/>
+      <c r="BB35" s="52"/>
+      <c r="BD35" s="45"/>
+      <c r="BE35" s="46"/>
+      <c r="BG35" s="2"/>
+      <c r="BH35" s="3"/>
+      <c r="BJ35" s="2"/>
+      <c r="BK35" s="3"/>
+      <c r="BM35" s="2"/>
+      <c r="BN35" s="3"/>
+    </row>
+    <row r="36" spans="2:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="55"/>
+      <c r="C36" s="56"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="56"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="56"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="14"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="14"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="14"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="14"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="14"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="14"/>
+      <c r="AO36" s="13"/>
+      <c r="AP36" s="14"/>
+      <c r="AR36" s="13"/>
+      <c r="AS36" s="14"/>
+      <c r="AU36" s="13"/>
+      <c r="AV36" s="14"/>
+      <c r="AX36" s="13"/>
+      <c r="AY36" s="14"/>
+      <c r="BA36" s="13"/>
+      <c r="BB36" s="14"/>
+      <c r="BD36" s="47"/>
+      <c r="BE36" s="48"/>
+      <c r="BG36" s="13"/>
+      <c r="BH36" s="14"/>
+      <c r="BJ36" s="13"/>
+      <c r="BK36" s="14"/>
+      <c r="BM36" s="4"/>
+      <c r="BN36" s="5"/>
+    </row>
+    <row r="37" spans="2:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="48"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="48"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="52"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="5"/>
+      <c r="W37" s="51"/>
+      <c r="X37" s="52"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="5"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="52"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="5"/>
+      <c r="AO37" s="13"/>
+      <c r="AP37" s="14"/>
+      <c r="AR37" s="13"/>
+      <c r="AS37" s="14"/>
+      <c r="AU37" s="13"/>
+      <c r="AV37" s="14"/>
+      <c r="AX37" s="13"/>
+      <c r="AY37" s="14"/>
+      <c r="BA37" s="13"/>
+      <c r="BB37" s="14"/>
+      <c r="BD37" s="2"/>
+      <c r="BE37" s="3"/>
+      <c r="BG37" s="13"/>
+      <c r="BH37" s="14"/>
+      <c r="BJ37" s="13"/>
+      <c r="BK37" s="14"/>
+      <c r="BM37" s="2"/>
+      <c r="BN37" s="3"/>
+    </row>
+    <row r="38" spans="2:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="14"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="14"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="3"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="14"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="3"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="3"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="3"/>
+      <c r="AO38" s="4"/>
+      <c r="AP38" s="5"/>
+      <c r="AR38" s="13"/>
+      <c r="AS38" s="14"/>
+      <c r="AU38" s="13"/>
+      <c r="AV38" s="14"/>
+      <c r="AX38" s="13"/>
+      <c r="AY38" s="14"/>
+      <c r="BA38" s="13"/>
+      <c r="BB38" s="14"/>
+      <c r="BD38" s="13"/>
+      <c r="BE38" s="14"/>
+      <c r="BG38" s="4"/>
+      <c r="BH38" s="5"/>
+      <c r="BJ38" s="4"/>
+      <c r="BK38" s="5"/>
+      <c r="BM38" s="13"/>
+      <c r="BN38" s="14"/>
+    </row>
+    <row r="39" spans="2:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="14"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="14"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="14"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="14"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="14"/>
+      <c r="AC39" s="13"/>
+      <c r="AD39" s="14"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="14"/>
+      <c r="AO39" s="2"/>
+      <c r="AP39" s="3"/>
+      <c r="AR39" s="51"/>
+      <c r="AS39" s="52"/>
+      <c r="AU39" s="45"/>
+      <c r="AV39" s="46"/>
+      <c r="AX39" s="4"/>
+      <c r="AY39" s="5"/>
+      <c r="BA39" s="13"/>
+      <c r="BB39" s="14"/>
+      <c r="BD39" s="13"/>
+      <c r="BE39" s="14"/>
+      <c r="BG39" s="2"/>
+      <c r="BH39" s="3"/>
+      <c r="BJ39" s="13"/>
+      <c r="BK39" s="14"/>
+      <c r="BM39" s="13"/>
+      <c r="BN39" s="14"/>
+    </row>
+    <row r="40" spans="2:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="14"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="14"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="14"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="14"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="14"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="14"/>
+      <c r="AC40" s="13"/>
+      <c r="AD40" s="14"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="14"/>
+      <c r="AO40" s="13"/>
+      <c r="AP40" s="14"/>
+      <c r="AR40" s="13"/>
+      <c r="AS40" s="14"/>
+      <c r="AU40" s="47"/>
+      <c r="AV40" s="48"/>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="3"/>
+      <c r="BA40" s="51"/>
+      <c r="BB40" s="52"/>
+      <c r="BD40" s="4"/>
+      <c r="BE40" s="5"/>
+      <c r="BG40" s="13"/>
+      <c r="BH40" s="14"/>
+      <c r="BJ40" s="13"/>
+      <c r="BK40" s="14"/>
+      <c r="BM40" s="4"/>
+      <c r="BN40" s="5"/>
+    </row>
+    <row r="41" spans="2:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="5"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="14"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="14"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="14"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="5"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="5"/>
+      <c r="AC41" s="13"/>
+      <c r="AD41" s="14"/>
+      <c r="AF41" s="13"/>
+      <c r="AG41" s="14"/>
+      <c r="AO41" s="13"/>
+      <c r="AP41" s="14"/>
+      <c r="AR41" s="13"/>
+      <c r="AS41" s="14"/>
+      <c r="AU41" s="13"/>
+      <c r="AV41" s="14"/>
+      <c r="AX41" s="13"/>
+      <c r="AY41" s="14"/>
+      <c r="BA41" s="13"/>
+      <c r="BB41" s="14"/>
+      <c r="BD41" s="13"/>
+      <c r="BE41" s="14"/>
+      <c r="BG41" s="13"/>
+      <c r="BH41" s="14"/>
+      <c r="BJ41" s="2"/>
+      <c r="BK41" s="3"/>
+      <c r="BM41" s="13"/>
+      <c r="BN41" s="14"/>
+    </row>
+    <row r="42" spans="2:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="52"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="46"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="46"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="3"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="14"/>
+      <c r="AC42" s="51"/>
+      <c r="AD42" s="52"/>
+      <c r="AF42" s="51"/>
+      <c r="AG42" s="52"/>
+      <c r="AO42" s="13"/>
+      <c r="AP42" s="14"/>
+      <c r="AR42" s="13"/>
+      <c r="AS42" s="14"/>
+      <c r="AU42" s="13"/>
+      <c r="AV42" s="14"/>
+      <c r="AX42" s="13"/>
+      <c r="AY42" s="14"/>
+      <c r="BA42" s="13"/>
+      <c r="BB42" s="14"/>
+      <c r="BD42" s="13"/>
+      <c r="BE42" s="14"/>
+      <c r="BG42" s="4"/>
+      <c r="BH42" s="5"/>
+      <c r="BJ42" s="13"/>
+      <c r="BK42" s="14"/>
+      <c r="BM42" s="13"/>
+      <c r="BN42" s="14"/>
+    </row>
+    <row r="43" spans="2:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="55"/>
+      <c r="C43" s="56"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="14"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="56"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="56"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="14"/>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="14"/>
+      <c r="AC43" s="13"/>
+      <c r="AD43" s="14"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="3"/>
+      <c r="AO43" s="45"/>
+      <c r="AP43" s="46"/>
+      <c r="AR43" s="13"/>
+      <c r="AS43" s="14"/>
+      <c r="AU43" s="13"/>
+      <c r="AV43" s="14"/>
+      <c r="AX43" s="13"/>
+      <c r="AY43" s="14"/>
+      <c r="BA43" s="13"/>
+      <c r="BB43" s="14"/>
+      <c r="BD43" s="13"/>
+      <c r="BE43" s="14"/>
+      <c r="BG43" s="13"/>
+      <c r="BH43" s="14"/>
+      <c r="BJ43" s="13"/>
+      <c r="BK43" s="14"/>
+      <c r="BM43" s="13"/>
+      <c r="BN43" s="14"/>
+    </row>
+    <row r="44" spans="2:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="47"/>
+      <c r="C44" s="48"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="52"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="5"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="48"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="48"/>
+      <c r="W44" s="51"/>
+      <c r="X44" s="52"/>
+      <c r="Z44" s="51"/>
+      <c r="AA44" s="52"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="5"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="5"/>
+      <c r="AO44" s="47"/>
+      <c r="AP44" s="48"/>
+      <c r="AR44" s="51"/>
+      <c r="AS44" s="52"/>
+      <c r="AU44" s="4"/>
+      <c r="AV44" s="5"/>
+      <c r="AX44" s="51"/>
+      <c r="AY44" s="52"/>
+      <c r="BA44" s="4"/>
+      <c r="BB44" s="5"/>
+      <c r="BD44" s="4"/>
+      <c r="BE44" s="5"/>
+      <c r="BG44" s="4"/>
+      <c r="BH44" s="5"/>
+      <c r="BJ44" s="4"/>
+      <c r="BK44" s="5"/>
+      <c r="BM44" s="4"/>
+      <c r="BN44" s="5"/>
+    </row>
+    <row r="45" spans="2:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="2:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="45"/>
+      <c r="C46" s="46"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="46"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="3"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="52"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="46"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="3"/>
+      <c r="Z46" s="51"/>
+      <c r="AA46" s="52"/>
+      <c r="AC46" s="45"/>
+      <c r="AD46" s="46"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="3"/>
+      <c r="AP46" s="2"/>
+      <c r="AQ46" s="3"/>
+    </row>
+    <row r="47" spans="2:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="55"/>
+      <c r="C47" s="56"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="56"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="14"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="14"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="48"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="14"/>
+      <c r="Z47" s="13"/>
+      <c r="AA47" s="14"/>
+      <c r="AC47" s="47"/>
+      <c r="AD47" s="48"/>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="5"/>
+      <c r="AP47" s="13"/>
+      <c r="AQ47" s="14"/>
+    </row>
+    <row r="48" spans="2:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="55"/>
+      <c r="C48" s="56"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="56"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="46"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="14"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="14"/>
+      <c r="W48" s="45"/>
+      <c r="X48" s="46"/>
+      <c r="Z48" s="13"/>
+      <c r="AA48" s="14"/>
+      <c r="AC48" s="13"/>
+      <c r="AD48" s="14"/>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="3"/>
+      <c r="AP48" s="2"/>
+      <c r="AQ48" s="3"/>
+    </row>
+    <row r="49" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="47"/>
+      <c r="C49" s="48"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="48"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="48"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="52"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="5"/>
+      <c r="W49" s="47"/>
+      <c r="X49" s="48"/>
+      <c r="Z49" s="51"/>
+      <c r="AA49" s="52"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="5"/>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="5"/>
+      <c r="AP49" s="4"/>
+      <c r="AQ49" s="5"/>
+    </row>
+    <row r="50" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B50" s="26"/>
+      <c r="C50" s="27"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="14"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="14"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="3"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="3"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="14"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="3"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="3"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="3"/>
+      <c r="AP50" s="2"/>
+      <c r="AQ50" s="3"/>
+    </row>
+    <row r="51" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B51" s="26"/>
+      <c r="C51" s="27"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="14"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="14"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="14"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="14"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="14"/>
+      <c r="Z51" s="13"/>
+      <c r="AA51" s="14"/>
+      <c r="AC51" s="13"/>
+      <c r="AD51" s="14"/>
+      <c r="AF51" s="13"/>
+      <c r="AG51" s="14"/>
+      <c r="AP51" s="13"/>
+      <c r="AQ51" s="14"/>
+    </row>
+    <row r="52" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B52" s="26"/>
+      <c r="C52" s="27"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="14"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="14"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="14"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="14"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="14"/>
+      <c r="Z52" s="13"/>
+      <c r="AA52" s="14"/>
+      <c r="AC52" s="13"/>
+      <c r="AD52" s="14"/>
+      <c r="AF52" s="13"/>
+      <c r="AG52" s="14"/>
+      <c r="AP52" s="13"/>
+      <c r="AQ52" s="14"/>
+    </row>
+    <row r="53" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="26"/>
+      <c r="C53" s="27"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="5"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="14"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="14"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="14"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="5"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="5"/>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="5"/>
+      <c r="AF53" s="13"/>
+      <c r="AG53" s="14"/>
+      <c r="AP53" s="4"/>
+      <c r="AQ53" s="5"/>
+    </row>
+    <row r="54" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B54" s="45"/>
+      <c r="C54" s="46"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="14"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="46"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="46"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="46"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="14"/>
+      <c r="Z54" s="13"/>
+      <c r="AA54" s="14"/>
+      <c r="AC54" s="13"/>
+      <c r="AD54" s="14"/>
+      <c r="AF54" s="45"/>
+      <c r="AG54" s="46"/>
+      <c r="AP54" s="13"/>
+      <c r="AQ54" s="14"/>
+    </row>
+    <row r="55" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="47"/>
+      <c r="C55" s="48"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="5"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="48"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="48"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="48"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="5"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="5"/>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="5"/>
+      <c r="AF55" s="47"/>
+      <c r="AG55" s="48"/>
+      <c r="AP55" s="4"/>
+      <c r="AQ55" s="5"/>
+    </row>
+    <row r="56" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="3"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="52"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="46"/>
+      <c r="N57" s="45"/>
+      <c r="O57" s="46"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="3"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="3"/>
+      <c r="AC57" s="51"/>
+      <c r="AD57" s="52"/>
+    </row>
+    <row r="58" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="55"/>
+      <c r="C58" s="56"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="14"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="14"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="59"/>
+      <c r="N58" s="55"/>
+      <c r="O58" s="56"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="5"/>
+      <c r="Z58" s="13"/>
+      <c r="AA58" s="14"/>
+      <c r="AC58" s="13"/>
+      <c r="AD58" s="14"/>
+    </row>
+    <row r="59" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="55"/>
+      <c r="C59" s="56"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="46"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="14"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="3"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="48"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="3"/>
+      <c r="Z59" s="51"/>
+      <c r="AA59" s="52"/>
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="5"/>
+    </row>
+    <row r="60" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="55"/>
+      <c r="C60" s="56"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="56"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="46"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="5"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="3"/>
+      <c r="W60" s="13"/>
+      <c r="X60" s="14"/>
+      <c r="Z60" s="13"/>
+      <c r="AA60" s="14"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="3"/>
+    </row>
+    <row r="61" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="47"/>
+      <c r="C61" s="48"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="48"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="48"/>
+      <c r="K61" s="62"/>
+      <c r="L61" s="63"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="5"/>
+      <c r="W61" s="51"/>
+      <c r="X61" s="52"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="5"/>
+      <c r="AC61" s="4"/>
+      <c r="AD61" s="5"/>
+    </row>
+    <row r="62" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B62" s="13"/>
+      <c r="C62" s="14"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="14"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="14"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="3"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="3"/>
+      <c r="W62" s="13"/>
+      <c r="X62" s="14"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="3"/>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="3"/>
+    </row>
+    <row r="63" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B63" s="13"/>
+      <c r="C63" s="14"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="14"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="14"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="14"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="14"/>
+      <c r="W63" s="13"/>
+      <c r="X63" s="14"/>
+      <c r="Z63" s="13"/>
+      <c r="AA63" s="14"/>
+      <c r="AC63" s="13"/>
+      <c r="AD63" s="14"/>
+    </row>
+    <row r="64" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B64" s="13"/>
+      <c r="C64" s="14"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="14"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="14"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="14"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="14"/>
+      <c r="W64" s="13"/>
+      <c r="X64" s="14"/>
+      <c r="Z64" s="13"/>
+      <c r="AA64" s="14"/>
+      <c r="AC64" s="13"/>
+      <c r="AD64" s="14"/>
+    </row>
+    <row r="65" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="13"/>
+      <c r="C65" s="14"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="14"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="14"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="14"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="14"/>
+      <c r="W65" s="13"/>
+      <c r="X65" s="14"/>
+      <c r="Z65" s="13"/>
+      <c r="AA65" s="14"/>
+      <c r="AC65" s="13"/>
+      <c r="AD65" s="14"/>
+    </row>
+    <row r="66" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="51"/>
+      <c r="C66" s="52"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="52"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="52"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="52"/>
+      <c r="N66" s="51"/>
+      <c r="O66" s="52"/>
+      <c r="W66" s="51"/>
+      <c r="X66" s="52"/>
+      <c r="Z66" s="51"/>
+      <c r="AA66" s="52"/>
+      <c r="AC66" s="51"/>
+      <c r="AD66" s="52"/>
+    </row>
+    <row r="67" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="45"/>
+      <c r="C68" s="46"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="3"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="52"/>
+      <c r="K68" s="45"/>
+      <c r="L68" s="46"/>
+      <c r="N68" s="45"/>
+      <c r="O68" s="46"/>
+      <c r="Q68" s="45"/>
+      <c r="R68" s="46"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="3"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="3"/>
+      <c r="AC68" s="2"/>
+      <c r="AD68" s="3"/>
+      <c r="AF68" s="51"/>
+      <c r="AG68" s="52"/>
+      <c r="AI68" s="2"/>
+      <c r="AJ68" s="3"/>
+      <c r="AL68" s="45"/>
+      <c r="AM68" s="46"/>
+      <c r="AP68" s="2"/>
+      <c r="AQ68" s="3"/>
+    </row>
+    <row r="69" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="55"/>
+      <c r="C69" s="56"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="14"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="14"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="48"/>
+      <c r="N69" s="55"/>
+      <c r="O69" s="56"/>
+      <c r="Q69" s="55"/>
+      <c r="R69" s="56"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="5"/>
+      <c r="Z69" s="13"/>
+      <c r="AA69" s="14"/>
+      <c r="AC69" s="13"/>
+      <c r="AD69" s="14"/>
+      <c r="AF69" s="13"/>
+      <c r="AG69" s="14"/>
+      <c r="AI69" s="2"/>
+      <c r="AJ69" s="3"/>
+      <c r="AL69" s="47"/>
+      <c r="AM69" s="48"/>
+      <c r="AP69" s="13"/>
+      <c r="AQ69" s="14"/>
+    </row>
+    <row r="70" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="55"/>
+      <c r="C70" s="56"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="46"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="14"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="3"/>
+      <c r="N70" s="47"/>
+      <c r="O70" s="48"/>
+      <c r="Q70" s="55"/>
+      <c r="R70" s="56"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="3"/>
+      <c r="Z70" s="51"/>
+      <c r="AA70" s="52"/>
+      <c r="AC70" s="45"/>
+      <c r="AD70" s="46"/>
+      <c r="AF70" s="4"/>
+      <c r="AG70" s="5"/>
+      <c r="AI70" s="13"/>
+      <c r="AJ70" s="14"/>
+      <c r="AL70" s="2"/>
+      <c r="AM70" s="3"/>
+      <c r="AP70" s="2"/>
+      <c r="AQ70" s="3"/>
+    </row>
+    <row r="71" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="55"/>
+      <c r="C71" s="56"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="56"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="46"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="14"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="3"/>
+      <c r="Q71" s="47"/>
+      <c r="R71" s="48"/>
+      <c r="W71" s="13"/>
+      <c r="X71" s="14"/>
+      <c r="Z71" s="13"/>
+      <c r="AA71" s="14"/>
+      <c r="AC71" s="47"/>
+      <c r="AD71" s="48"/>
+      <c r="AF71" s="2"/>
+      <c r="AG71" s="3"/>
+      <c r="AI71" s="51"/>
+      <c r="AJ71" s="52"/>
+      <c r="AL71" s="4"/>
+      <c r="AM71" s="5"/>
+      <c r="AP71" s="4"/>
+      <c r="AQ71" s="5"/>
+    </row>
+    <row r="72" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="55"/>
+      <c r="C72" s="56"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="56"/>
+      <c r="H72" s="55"/>
+      <c r="I72" s="56"/>
+      <c r="K72" s="45"/>
+      <c r="L72" s="46"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="14"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="14"/>
+      <c r="W72" s="45"/>
+      <c r="X72" s="46"/>
+      <c r="Z72" s="13"/>
+      <c r="AA72" s="14"/>
+      <c r="AC72" s="13"/>
+      <c r="AD72" s="14"/>
+      <c r="AF72" s="13"/>
+      <c r="AG72" s="14"/>
+      <c r="AI72" s="13"/>
+      <c r="AJ72" s="14"/>
+      <c r="AL72" s="2"/>
+      <c r="AM72" s="3"/>
+      <c r="AP72" s="2"/>
+      <c r="AQ72" s="3"/>
+    </row>
+    <row r="73" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="47"/>
+      <c r="C73" s="48"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="48"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="48"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="48"/>
+      <c r="N73" s="51"/>
+      <c r="O73" s="52"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="5"/>
+      <c r="W73" s="47"/>
+      <c r="X73" s="48"/>
+      <c r="Z73" s="51"/>
+      <c r="AA73" s="52"/>
+      <c r="AC73" s="4"/>
+      <c r="AD73" s="5"/>
+      <c r="AF73" s="51"/>
+      <c r="AG73" s="52"/>
+      <c r="AI73" s="4"/>
+      <c r="AJ73" s="5"/>
+      <c r="AL73" s="4"/>
+      <c r="AM73" s="5"/>
+      <c r="AP73" s="4"/>
+      <c r="AQ73" s="5"/>
+    </row>
+    <row r="74" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B74" s="13"/>
+      <c r="C74" s="14"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="14"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="3"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="3"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="3"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="3"/>
+      <c r="W74" s="13"/>
+      <c r="X74" s="14"/>
+      <c r="Z74" s="13"/>
+      <c r="AA74" s="14"/>
+      <c r="AC74" s="13"/>
+      <c r="AD74" s="14"/>
+      <c r="AF74" s="13"/>
+      <c r="AG74" s="14"/>
+      <c r="AI74" s="13"/>
+      <c r="AJ74" s="14"/>
+      <c r="AL74" s="13"/>
+      <c r="AM74" s="14"/>
+      <c r="AP74" s="2"/>
+      <c r="AQ74" s="3"/>
+    </row>
+    <row r="75" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B75" s="13"/>
+      <c r="C75" s="14"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="14"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="14"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="14"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="14"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="14"/>
+      <c r="W75" s="13"/>
+      <c r="X75" s="14"/>
+      <c r="Z75" s="13"/>
+      <c r="AA75" s="14"/>
+      <c r="AC75" s="13"/>
+      <c r="AD75" s="14"/>
+      <c r="AF75" s="13"/>
+      <c r="AG75" s="14"/>
+      <c r="AI75" s="13"/>
+      <c r="AJ75" s="14"/>
+      <c r="AL75" s="13"/>
+      <c r="AM75" s="14"/>
+      <c r="AP75" s="13"/>
+      <c r="AQ75" s="14"/>
+    </row>
+    <row r="76" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B76" s="13"/>
+      <c r="C76" s="14"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="14"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="14"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="14"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="14"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="14"/>
+      <c r="W76" s="13"/>
+      <c r="X76" s="14"/>
+      <c r="Z76" s="13"/>
+      <c r="AA76" s="14"/>
+      <c r="AC76" s="13"/>
+      <c r="AD76" s="14"/>
+      <c r="AF76" s="13"/>
+      <c r="AG76" s="14"/>
+      <c r="AI76" s="13"/>
+      <c r="AJ76" s="14"/>
+      <c r="AL76" s="13"/>
+      <c r="AM76" s="14"/>
+      <c r="AP76" s="13"/>
+      <c r="AQ76" s="14"/>
+    </row>
+    <row r="77" spans="2:43" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="4"/>
+      <c r="C77" s="5"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="5"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="5"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="5"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="5"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="5"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="5"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="5"/>
+      <c r="AC77" s="4"/>
+      <c r="AD77" s="5"/>
+      <c r="AF77" s="4"/>
+      <c r="AG77" s="5"/>
+      <c r="AI77" s="4"/>
+      <c r="AJ77" s="5"/>
+      <c r="AL77" s="4"/>
+      <c r="AM77" s="5"/>
+      <c r="AP77" s="4"/>
+      <c r="AQ77" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BD30"/>
   <sheetViews>
@@ -12320,1661 +18414,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U125"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="13"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="13"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="4"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="1"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="1"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="1"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="1"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="1"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B32" s="1"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="1"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="14"/>
-    </row>
-    <row r="35" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="14"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="14"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="5"/>
-    </row>
-    <row r="41" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="5"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="14"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="5"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="5"/>
-    </row>
-    <row r="46" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="13"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="1"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="1"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="2"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="13"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="14"/>
-    </row>
-    <row r="60" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="5"/>
-    </row>
-    <row r="61" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="2"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="11"/>
-    </row>
-    <row r="63" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="16"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="5"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="2"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="4"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="5"/>
-    </row>
-    <row r="71" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="1"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="1"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="14"/>
-    </row>
-    <row r="75" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="5"/>
-    </row>
-    <row r="76" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="14"/>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B79" s="13"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="4"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="35"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="25"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B83" s="24"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="27"/>
-    </row>
-    <row r="84" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="31"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="28"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B85" s="36"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-    </row>
-    <row r="86" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B87" s="2"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="4"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B89" s="2"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="4"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B92" s="8"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="15"/>
-    </row>
-    <row r="93" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="8"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="15"/>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B94" s="13"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="4"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B97" s="1"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="1"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B99" s="1"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="1"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="1"/>
-    </row>
-    <row r="102" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B103" s="1"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="13"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="5"/>
-    </row>
-    <row r="105" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="4"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-    </row>
-    <row r="106" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B107" s="2"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="3"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B108" s="13"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="14"/>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-    </row>
-    <row r="111" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="3"/>
-    </row>
-    <row r="113" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="14"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B114" s="1"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="1"/>
-    </row>
-    <row r="115" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="1"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="1"/>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B118" s="13"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="14"/>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B119" s="13"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="14"/>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-    </row>
-    <row r="122" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-    </row>
-    <row r="123" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="2"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="11"/>
-    </row>
-    <row r="124" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="4"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="3"/>
-    </row>
-    <row r="125" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="16"/>
-      <c r="C125" s="33"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AB60"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE17" sqref="AE17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="3"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="3"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="3"/>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="14"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="14"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="14"/>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="14"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="14"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="14"/>
-    </row>
-    <row r="5" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="5"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="5"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="14"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="5"/>
-    </row>
-    <row r="6" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="52"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="3"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="3"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="55"/>
-      <c r="C7" s="56"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="56"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="5"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="14"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="14"/>
-    </row>
-    <row r="8" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="46"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="3"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="5"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="52"/>
-    </row>
-    <row r="9" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="46"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="56"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="14"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="3"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="14"/>
-    </row>
-    <row r="10" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="52"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="48"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="52"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="5"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="5"/>
-    </row>
-    <row r="11" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="52"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="52"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
-    </row>
-    <row r="16" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="52"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="3"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="48"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="46"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="3"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="3"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="48"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="48"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="14"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="14"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="14"/>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="14"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="3"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="3"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="14"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="14"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="14"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="14"/>
-    </row>
-    <row r="26" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="14"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="14"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="14"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="14"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="3"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="3"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="52"/>
-    </row>
-    <row r="27" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="5"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="5"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="14"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="14"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="14"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="14"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="14"/>
-    </row>
-    <row r="28" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="45"/>
-      <c r="C28" s="46"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="54"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="3"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="3"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="52"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="46"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="14"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="14"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="14"/>
-    </row>
-    <row r="29" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="55"/>
-      <c r="C29" s="56"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="14"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="14"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="56"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="5"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="14"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="14"/>
-    </row>
-    <row r="30" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="52"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="52"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="5"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="48"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="3"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="52"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="5"/>
-    </row>
-    <row r="31" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U31" s="13"/>
-      <c r="V31" s="14"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="14"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="14"/>
-    </row>
-    <row r="32" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="3"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="52"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="3"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="52"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="14"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="14"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="14"/>
-    </row>
-    <row r="33" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="55"/>
-      <c r="C33" s="56"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="56"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="14"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="14"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="14"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="14"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="14"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="14"/>
-      <c r="AA33" s="13"/>
-      <c r="AB33" s="14"/>
-    </row>
-    <row r="34" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="58"/>
-      <c r="C34" s="59"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="48"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="52"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="5"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="52"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="5"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="52"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="5"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="5"/>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="14"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="3"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="14"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="3"/>
-    </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="14"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="14"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="14"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="14"/>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="14"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="14"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="14"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="14"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="14"/>
-    </row>
-    <row r="38" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="14"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="14"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="14"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="5"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="5"/>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="3"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="46"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="46"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="14"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="14"/>
-    </row>
-    <row r="40" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="47"/>
-      <c r="C40" s="48"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="5"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="48"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="48"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="5"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="5"/>
-    </row>
-    <row r="41" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="45"/>
-      <c r="C42" s="46"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="3"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="52"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="46"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="55"/>
-      <c r="C43" s="56"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="14"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="14"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="48"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="5"/>
-    </row>
-    <row r="44" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="55"/>
-      <c r="C44" s="56"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="46"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="14"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="14"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="47"/>
-      <c r="C45" s="48"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="48"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="52"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="5"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="5"/>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="14"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="14"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="3"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="14"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="14"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="14"/>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="14"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="14"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="14"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="14"/>
-    </row>
-    <row r="49" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="14"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="14"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="14"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="14"/>
-    </row>
-    <row r="50" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="51"/>
-      <c r="C50" s="52"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="52"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="52"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="52"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="52"/>
-    </row>
-    <row r="51" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="45"/>
-      <c r="C52" s="46"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="3"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="52"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="46"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="46"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="3"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="3"/>
-      <c r="W52" s="51"/>
-      <c r="X52" s="52"/>
-    </row>
-    <row r="53" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="55"/>
-      <c r="C53" s="56"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="14"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="14"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="48"/>
-      <c r="N53" s="55"/>
-      <c r="O53" s="56"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="5"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="14"/>
-      <c r="W53" s="13"/>
-      <c r="X53" s="14"/>
-    </row>
-    <row r="54" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="55"/>
-      <c r="C54" s="56"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="46"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="14"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="14"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="48"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="3"/>
-      <c r="T54" s="51"/>
-      <c r="U54" s="52"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="5"/>
-    </row>
-    <row r="55" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="55"/>
-      <c r="C55" s="56"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="56"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="46"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="14"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="14"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="14"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="14"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="47"/>
-      <c r="C56" s="48"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="48"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="48"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="52"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="5"/>
-      <c r="Q56" s="51"/>
-      <c r="R56" s="52"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="5"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="5"/>
-    </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B57" s="13"/>
-      <c r="C57" s="14"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="14"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="14"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="14"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="14"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="14"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="14"/>
-      <c r="W57" s="13"/>
-      <c r="X57" s="14"/>
-    </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B58" s="13"/>
-      <c r="C58" s="14"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="14"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="14"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="14"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="14"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="14"/>
-      <c r="T58" s="13"/>
-      <c r="U58" s="14"/>
-      <c r="W58" s="13"/>
-      <c r="X58" s="14"/>
-    </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B59" s="13"/>
-      <c r="C59" s="14"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="14"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="14"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="14"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="14"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="14"/>
-      <c r="T59" s="13"/>
-      <c r="U59" s="14"/>
-      <c r="W59" s="13"/>
-      <c r="X59" s="14"/>
-    </row>
-    <row r="60" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="5"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="5"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="5"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="5"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="5"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="5"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="5">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>